--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -1795,7 +1795,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleById("sukutsu_arena_master", 4, true);</t>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K89"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,86 +520,96 @@
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>narr_2</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>scene1_announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>scene1_announcement</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>narr_2</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>scene1_announcement</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>scene1_announcement</t>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="D13" t="inlineStr">
         <is>
-          <t>wait</t>
+          <t>focusChara</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.3</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="D14" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>0.5</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="F15" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
     </row>
@@ -611,29 +621,39 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
     </row>
@@ -645,51 +665,46 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>narr_3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -701,114 +716,149 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>lily_6</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="F23" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
     </row>
     <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>react1_audience</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>c1_audience</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>観客を止められないのか？</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>観客を止められないのか？</t>
         </is>
       </c>
     </row>
     <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>react1_items</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>c1_items</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>どんな物が降ってくる？</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>どんな物が降ってくる？</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>c1_silent</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>react1_audience</t>
         </is>
       </c>
     </row>
@@ -820,283 +870,283 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>react1_audience</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>c1_audience</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>観客を止められないのか？</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>観客を止められないのか？</t>
+          <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
+      <c r="A30" t="inlineStr">
         <is>
           <t>react1_items</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>c1_items</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>どんな物が降ってくる？</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>どんな物が降ってくる？</t>
-        </is>
-      </c>
     </row>
     <row r="31">
-      <c r="B31" t="inlineStr">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>lily_r2</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>scene2_balgas_warning</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
         <is>
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>react1_audience</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="F33" t="inlineStr">
+    </row>
+    <row r="34">
+      <c r="F34" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>lily_r1</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>無理です。彼らは高次元の存在。私たちには手が届きません。……諦めて、楽しませてあげてください。</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>無理です。彼らは高次元の存在。私たちには手が届きません。……諦めて、楽しませてあげてください。</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="inlineStr">
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>lily_r3</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
         <is>
           <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>react1_items</t>
-        </is>
-      </c>
-    </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>lily_r2</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>scene2_balgas_warning</t>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>scene2_balgas_warning</t>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>scene2_balgas_warning</t>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="F46" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>balgas_5</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
         </is>
       </c>
     </row>
@@ -1108,17 +1158,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
         </is>
       </c>
     </row>
@@ -1130,85 +1180,105 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
         </is>
       </c>
     </row>
     <row r="49">
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>react2_dodge</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c2_dodge</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>避けることに集中する</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>避けることに集中する</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>react2_use</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>c2_use</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>落下物を利用してみせる</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>落下物を利用してみせる</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>c2_nod</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>1.0</t>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>react2_dodge</t>
         </is>
       </c>
     </row>
@@ -1220,51 +1290,31 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>balgas_6</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>react2_use</t>
         </is>
       </c>
     </row>
@@ -1276,225 +1326,225 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>balgas_7</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>react2_dodge</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>c2_dodge</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>避けることに集中する</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>避けることに集中する</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>react2_use</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>c2_use</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>落下物を利用してみせる</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>落下物を利用してみせる</t>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>c2_nod</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>（無言で頷く）</t>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>（無言で頷く）</t>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>react2_dodge</t>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>react2_use</t>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="F64" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>narr_6</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
+          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
+          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>balgas_r3</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>lily_ann1</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>……皆様、本日のメインディッシュです！</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>lily_ann2</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
         </is>
       </c>
     </row>
@@ -1506,301 +1556,41 @@
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="D72" t="inlineStr">
         <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>0.5</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>lily_ann1</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>lily_ann2</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>obs_1</t>
-        </is>
-      </c>
-      <c r="I82" t="inlineStr">
-        <is>
-          <t>（観客の歓声：「さあ、始めろ！」）</t>
-        </is>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>（観客の歓声：「さあ、始めろ！」）</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>obs_2</t>
-        </is>
-      </c>
-      <c r="I83" t="inlineStr">
-        <is>
-          <t>（観客の笑い声：「今回の賭けは『3ターン以内に圧死』だ」）</t>
-        </is>
-      </c>
-      <c r="J83" t="inlineStr">
-        <is>
-          <t>（観客の笑い声：「今回の賭けは『3ターン以内に圧死』だ」）</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>obs_3</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>（観客の嘲笑：「いや、5ターンは持つだろう。……多分」）</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>（観客の嘲笑：「いや、5ターンは持つだろう。……多分」）</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>1.0</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="D89" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -556,38 +556,68 @@
       </c>
     </row>
     <row r="12">
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
     </row>
@@ -599,61 +629,46 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>narr_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -665,200 +680,185 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>lily_7</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_audience</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>c1_audience</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>観客を止められないのか？</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>観客を止められないのか？</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>react1_items</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>c1_items</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>どんな物が降ってくる？</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>どんな物が降ってくる？</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>react1_audience</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>lily_5</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>lily_6</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>lily_7</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>react1_audience</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_audience</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>観客を止められないのか？</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>観客を止められないのか？</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>react1_items</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>c1_items</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>どんな物が降ってくる？</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>どんな物が降ってくる？</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>react1_audience</t>
+          <t>react1_items</t>
         </is>
       </c>
     </row>
@@ -870,17 +870,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
+          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
+          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_items</t>
+          <t>react1_silent</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
         </is>
       </c>
     </row>
@@ -930,113 +930,173 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>scene2_balgas_warning</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>scene2_balgas_warning</t>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>balgas_1</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>balgas_2</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>balgas_3</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="F41" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_arena_master</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>balgas_6</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
         </is>
       </c>
     </row>
@@ -1048,105 +1108,105 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>balgas_1</t>
+          <t>balgas_7</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
+          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
+          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>react2_dodge</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>balgas_2</t>
+          <t>c2_dodge</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+          <t>避けることに集中する</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
+          <t>避けることに集中する</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>react2_use</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>c2_use</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>落下物を利用してみせる</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>落下物を利用してみせる</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>c2_nod</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>balgas_5</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>react2_dodge</t>
         </is>
       </c>
     </row>
@@ -1158,127 +1218,67 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>react2_use</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>balgas_7</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>react2_dodge</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c2_dodge</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>避けることに集中する</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>避けることに集中する</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>react2_use</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>c2_use</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>落下物を利用してみせる</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>落下物を利用してみせる</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>react2_dodge</t>
+          <t>react2_nod</t>
         </is>
       </c>
     </row>
@@ -1290,17 +1290,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>balgas_r1</t>
+          <t>balgas_r3</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
       </c>
     </row>
@@ -1314,283 +1314,175 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>react2_use</t>
+          <t>battle_start</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>balgas_r2</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="F59" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>narr_7</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
+          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>lily_ann1</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>……皆様、本日のメインディッシュです！</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>battle_start</t>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>lily_ann2</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>narr_8</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="D64" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_7</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_ann1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>lily_ann2</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>narr_8</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>shake</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -670,12 +670,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が降ってきます。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
     </row>
@@ -743,12 +743,12 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
+          <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>戦闘中、あなたの頭上から様々な物が降ってきます。石、薬、武器……時には爆発物も。</t>
+          <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>ランダムです。ポーションが降ってくることもあれば、鉄の塊が頭に直撃することも。……運を祈ってくださいね？</t>
+          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
     </row>
@@ -1437,12 +1437,12 @@
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
+          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>（砂地の中央には、今回の対戦相手『次元の剣闘士』が三体、武器を構えて待ち構えていた。）</t>
+          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
         </is>
       </c>
     </row>
@@ -1454,75 +1454,75 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
+          <t>narr_6b</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>（男の名は『グリード』——かつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>（男の名は『グリード』——かつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="D67" t="inlineStr">
         <is>
-          <t>focusChara</t>
+          <t>wait</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
+          <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="D68" t="inlineStr">
         <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="D69" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>lily_ann1</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
@@ -1534,63 +1534,85 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>lily_ann2</t>
+          <t>lily_ann1</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
+          <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>新たな『銅貨稼ぎ』候補による、命懸けのサーカスをお楽しみください！</t>
+          <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="F71" t="inlineStr">
         <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>lily_ann2</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="F72" t="inlineStr">
+        <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>（戦いが始まった瞬間、頭上の虚空が紫色に光り、何かが降ってくる音が響いた……！）</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="D73" t="inlineStr">
         <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
+          <t>shake</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="D74" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="D75" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K75"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,172 +488,142 @@
     <row r="7">
       <c r="D7" t="inlineStr">
         <is>
+          <t>fadeOut</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="D8" t="inlineStr">
+        <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>fadeIn</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.0,black</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="F8" t="inlineStr">
+    <row r="11">
+      <c r="F11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>（ロビーに戻ったあなたを、リリィが妖艶な笑みで迎える。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーに戻ったあなたを、リリィが妖艶な笑みで迎える。）</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="F9" t="inlineStr">
+    <row r="12">
+      <c r="F12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
+    <row r="13">
+      <c r="B13" t="inlineStr">
         <is>
           <t>scene1_announcement</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
         <is>
           <t>scene1_announcement</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="D12" t="inlineStr">
+    <row r="15">
+      <c r="D15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="D13" t="inlineStr">
+    <row r="16">
+      <c r="D16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="D14" t="inlineStr">
+    <row r="17">
+      <c r="D17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>lily_1</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>lily_2</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>lily_3</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
     </row>
@@ -665,46 +635,61 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>lily_1</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
+          <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>narr_3</t>
+          <t>lily_2</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+          <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>lily_3</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
     </row>
@@ -716,185 +701,200 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+          <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="F22" t="inlineStr">
         <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>narr_3</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>shake</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="F24" t="inlineStr">
+        <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>lily_5</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
+    <row r="26">
+      <c r="F26" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
+    <row r="27">
+      <c r="B27" t="inlineStr">
         <is>
           <t>react1_audience</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>c1_audience</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>観客を止められないのか？</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>観客を止められないのか？</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="B25" t="inlineStr">
+    <row r="28">
+      <c r="B28" t="inlineStr">
         <is>
           <t>react1_items</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>c1_items</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>どんな物が降ってくる？</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>どんな物が降ってくる？</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>react1_silent</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>c1_silent</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>react1_audience</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>lily_r1</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>scene2_balgas_warning</t>
+          <t>react1_silent</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>c1_silent</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>react1_items</t>
+          <t>react1_audience</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
+          <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>react1_silent</t>
+          <t>react1_items</t>
         </is>
       </c>
     </row>
@@ -942,17 +942,17 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>lily_r3</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+          <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
     </row>
@@ -966,143 +966,113 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>react1_silent</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>lily_r3</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>0.3</t>
-        </is>
-      </c>
-    </row>
     <row r="39">
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>scene2_balgas_warning</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="D40" t="inlineStr">
         <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>0.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>focusChara</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
         <is>
           <t>0.5</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>narr_4</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>balgas_1</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>……おい、銅貨稼ぎ予備軍。</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>balgas_2</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="F44" t="inlineStr">
         <is>
-          <t>sukutsu_arena_master</t>
+          <t>pc</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>balgas_3</t>
+          <t>narr_4</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
+          <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
     </row>
@@ -1114,17 +1084,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>balgas_4</t>
+          <t>balgas_1</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+          <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
     </row>
@@ -1136,17 +1106,17 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>balgas_5</t>
+          <t>balgas_2</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+          <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
     </row>
@@ -1158,17 +1128,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>balgas_6</t>
+          <t>balgas_3</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、良い物が降ってくる確率が上がる。</t>
+          <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
         </is>
       </c>
     </row>
@@ -1180,141 +1150,171 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
+          <t>balgas_4</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>爆発物が降ってきたら……全力で逃げろ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>balgas_5</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>balgas_6</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、即死するような物は投げてこないからな。</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>それと……観客を楽しませることも忘れるな。派手に戦えば、即死するような物は投げてこないからな。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>……まあ、お前なら大丈夫だろう。行ってこい。</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>……死ぬなよ。行ってこい。</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>……死ぬなよ。行ってこい。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="inlineStr">
         <is>
           <t>react2_dodge</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>c2_dodge</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>避けることに集中する</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>避けることに集中する</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="B50" t="inlineStr">
+    <row r="53">
+      <c r="B53" t="inlineStr">
         <is>
           <t>react2_use</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>c2_use</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>落下物を利用してみせる</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>落下物を利用してみせる</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>react2_nod</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>c2_nod</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>react2_dodge</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>sukutsu_arena_master</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>balgas_r1</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>battle_start</t>
+          <t>react2_nod</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>c2_nod</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>react2_use</t>
+          <t>react2_dodge</t>
         </is>
       </c>
     </row>
@@ -1326,17 +1326,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>balgas_r2</t>
+          <t>balgas_r1</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
+          <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1350,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>react2_nod</t>
+          <t>react2_use</t>
         </is>
       </c>
     </row>
@@ -1362,17 +1362,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>balgas_r3</t>
+          <t>balgas_r2</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>……よし。じゃあ行け。死ぬなよ。</t>
+          <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
     </row>
@@ -1386,85 +1386,55 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>react2_nod</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>sukutsu_arena_master</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>balgas_r3</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>……よし。じゃあ行け。死ぬなよ。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
           <t>battle_start</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="D62" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>battle_start</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="D65" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>narr_5</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>narr_6</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>narr_6b</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>（男の名は『グリード』——かつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>（男の名は『グリード』——かつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
         </is>
       </c>
     </row>
@@ -1476,143 +1446,209 @@
       </c>
       <c r="H66" t="inlineStr">
         <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>narr_6b</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>（男の名は『グリード』ーーかつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>（男の名は『グリード』ーーかつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="D67" t="inlineStr">
+    <row r="70">
+      <c r="D70" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="D68" t="inlineStr">
+    <row r="71">
+      <c r="D71" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="D69" t="inlineStr">
+    <row r="72">
+      <c r="D72" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="F70" t="inlineStr">
+    <row r="73">
+      <c r="F73" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>lily_ann1</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="F71" t="inlineStr">
+    <row r="74">
+      <c r="F74" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>lily_ann2</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="F72" t="inlineStr">
+    <row r="75">
+      <c r="F75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="D73" t="inlineStr">
+    <row r="76">
+      <c r="D76" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="D74" t="inlineStr">
+    <row r="77">
+      <c r="D77" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="D75" t="inlineStr">
+    <row r="78">
+      <c r="D78" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_rank_up_D.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K78"/>
+  <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,92 +491,92 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>fadeOut</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>dm.imageBG.enabled = true; dm.imageBG.sprite = "Drama/arena_battle_normal".LoadSprite();</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>fadeIn</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1.0,black</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>（ロビーに戻ったあなたを、リリィが妖艶な笑みで迎える。）</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>（ロビーに戻ったあなたを、リリィが妖艶な笑みで迎える。）</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>（彼女の台帳には、あなたの戦績と共に、新たな「試練」の記録が追加されている。）</t>
         </is>
@@ -592,219 +597,219 @@
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>……お疲れ様でした。カインさんの魂を巡る選択、興味深く拝見させていただきました。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>さて、次はRank D『銅貨稼ぎ（Copper Earner）』への昇格試験です。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>ここからは、ただ敵を倒すだけでは不十分。観客の皆様を『満足』させる必要があります。</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>彼らが退屈すれば、あなたに『プレゼント』が投げ込まれます。</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>（彼女は指を鳴らす。すると、ロビーの天井から突如、石塊が落下してきた。）</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>……ふふ、驚きました？ これが『観客の介入』です。</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>戦闘中、高次元から爆風とともに様々な物が投げ込まれます。石、薬、武器……次元を超えた衝撃も伴います。</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>それらを避けながら、あるいは利用しながら戦う……それがRank Dの『芸』ですよ。</t>
         </is>
@@ -816,22 +821,22 @@
           <t>react1_audience</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>c1_audience</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>観客を止められないのか？</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>観客を止められないのか？</t>
         </is>
@@ -843,22 +848,22 @@
           <t>react1_items</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>c1_items</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>どんな物が降ってくる？</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>どんな物が降ってくる？</t>
         </is>
@@ -870,22 +875,22 @@
           <t>react1_silent</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>c1_silent</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -899,22 +904,22 @@
       </c>
     </row>
     <row r="31">
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>無理です。観客は次元の外側から私たちを見ている存在。手が届きません。……諦めて、楽しませてあげてください。</t>
         </is>
@@ -935,22 +940,22 @@
       </c>
     </row>
     <row r="34">
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>何が来るかは分かりません。ポーションが爆風とともに飛んでくることもあれば、鉄の塊が直撃することも。……運を祈ってくださいね？</t>
         </is>
@@ -971,22 +976,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>……無口ですが、理解はされたようですね。では、バルガスさんからも一言。</t>
         </is>
@@ -1007,224 +1012,224 @@
       </c>
     </row>
     <row r="40">
-      <c r="D40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Ominous_Suspense_01");             var data = SoundManager.current.GetData("BGM/Ominous_Suspense_01");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Ominous_Suspense_01");             }</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="D41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="D42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="D43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="F44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>（バルガスが近づいてくる。その表情はいつになく真剣だ。）</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>balgas_1</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>……おい、銅貨稼ぎ予備軍。</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>balgas_2</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>観客のヤジは、ただの嫌がらせじゃねえ。戦況を一変させる『変数』だ。</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>balgas_3</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>石が降ってきたら、敵に当たるように誘導しろ。薬が降ってきたら、素早く拾って飲め。</t>
         </is>
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>balgas_4</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>爆発物が降ってきたら……全力で逃げろ。</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>爆発物が降ってきたら……全力で逃げろ。</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>balgas_5</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>大事なのは、『動き続ける』ことだ。止まれば的になる。</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>balgas_6</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>それと……観客を楽しませることも忘れるな。派手に戦えば、即死するような物は投げてこないからな。</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>それと……観客を楽しませることも忘れるな。派手に戦えば、即死するような物は投げてこないからな。</t>
         </is>
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>balgas_7</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>……死ぬなよ。行ってこい。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>……死ぬなよ。行ってこい。</t>
         </is>
@@ -1236,22 +1241,22 @@
           <t>react2_dodge</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>c2_dodge</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
+      <c r="J52" t="inlineStr">
         <is>
           <t>避けることに集中する</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="K52" t="inlineStr">
         <is>
           <t>避けることに集中する</t>
         </is>
@@ -1263,22 +1268,22 @@
           <t>react2_use</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>c2_use</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
+      <c r="J53" t="inlineStr">
         <is>
           <t>落下物を利用してみせる</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="K53" t="inlineStr">
         <is>
           <t>落下物を利用してみせる</t>
         </is>
@@ -1290,22 +1295,22 @@
           <t>react2_nod</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>c2_nod</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -1319,22 +1324,22 @@
       </c>
     </row>
     <row r="56">
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>balgas_r1</t>
         </is>
       </c>
-      <c r="I56" t="inlineStr">
+      <c r="J56" t="inlineStr">
         <is>
           <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="K56" t="inlineStr">
         <is>
           <t>賢明だ。まずは生き残ることが最優先だからな。</t>
         </is>
@@ -1355,22 +1360,22 @@
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>balgas_r2</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>ハッ、強気だな。だが、その意気込みは悪くねえ。</t>
         </is>
@@ -1391,22 +1396,22 @@
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>sukutsu_arena_master</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>balgas_r3</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>……よし。じゃあ行け。死ぬなよ。</t>
         </is>
@@ -1427,228 +1432,228 @@
       </c>
     </row>
     <row r="65">
-      <c r="D65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Battle_Audience_Chaos");             var data = SoundManager.current.GetData("BGM/Battle_Audience_Chaos");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Battle_Audience_Chaos");             }</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="F66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
+      <c r="J66" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
+      <c r="K66" t="inlineStr">
         <is>
           <t>（闘技場の門を潜ると、既に観客たちの熱気が空気を震わせている。）</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>（砂地の中央に立つのは、ただ一人の男。だが、その眼は虚ろで、口元には不自然な笑みが張り付いている。）</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>narr_6b</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>（男の名は『グリード』ーーかつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>（男の名は『グリード』ーーかつて『闘技場の鴉』の一員だったが、観客の力に魅せられ、自らその傀儡となった者。）</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>（リリィの声が、魔術的な拡声によって会場全体に響き渡る。）</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="D70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="D71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="D72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>lily_ann1</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>……皆様、本日のメインディッシュです！</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>lily_ann2</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>『観客の代弁者』グリードと、新たな『銅貨稼ぎ』候補の命懸けの舞踏をお楽しみください！</t>
         </is>
       </c>
     </row>
     <row r="75">
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>（グリードの口から、観客の歓声を模した轟音が響く。戦いが始まった瞬間、頭上の虚空が紫色に光った……！）</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="D77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.StartBattleByStage("rank_d_trial", "sukutsu_arena_master");</t>
         </is>
       </c>
     </row>
     <row r="78">
-      <c r="D78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>end</t>
         </is>
